--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patriot stands like a mountain before Rhodes Island. The only way to cross… is to overcome him.
+    <t xml:space="preserve">Patriot stands like a mountain before Rhodes Island. The only way to cross... is to overcome him.
 </t>
   </si>
   <si>
